--- a/Producto/Web/Casos de prueba/2.xlsx
+++ b/Producto/Web/Casos de prueba/2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DatosGenerales" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Pasos" sheetId="2" r:id="rId3"/>
     <sheet name="Control de cambios" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -52,33 +52,6 @@
     <t>Pendiente de revision</t>
   </si>
   <si>
-    <t>&lt;Horario1&gt; con &lt;Dias1&gt; como dias, &lt;HorarioDesde1&gt; como horario desde y &lt;HorarioHasta1&gt; como horario hasta es un horario de &lt;Playa1&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;Precio1&gt; con &lt;TipoVehiculo1&gt; como tipo de vehiculo, &lt;TipoHorario1&gt; como tipo de horario, &lt;Dias1&gt; como dias y &lt;ValorPrecio1&gt; como precio es un precio de &lt;Playa1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;NombrePlaya2&gt; es un nombre válido para un playa de estcionamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;Telefono1&gt; es un telefono valido de playa de estacionamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;mail1&gt; es un mail válido de la playa de estacionamiento</t>
-  </si>
-  <si>
-    <t>&lt;tipoPlaya1&gt; es un tipo de playa de estacionamiento valido y existe en la base de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;TipoVehiculo1&gt; es un tipo de vehiculo que existe en la base de datos y &lt;capacidad1&gt; es un valor válido para una capacidad</t>
-  </si>
-  <si>
-    <t>&lt;Domicilio1&gt; con &lt;Provincia1&gt; existe en la base de datos, &lt;Departamento1&gt; existe en la base de datos y pertenece a la provincia &lt;Provincia1&gt;, &lt;Ciudad1&gt; existe en la base de datos y pertenece al departamento &lt;Departamento1&gt;, &lt;Calle1&gt; es una calle valida y &lt;Numero1&gt; es un valor valido para numero, es domicilio valido para una playa de estacionamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;TipoVehiculo2&gt; es un tipo de vehiculo que existe en la base de datos y &lt;Capacidad2&gt; es un valor válido para una capacidad</t>
-  </si>
-  <si>
     <t>volver</t>
   </si>
   <si>
@@ -121,12 +94,6 @@
     <t>La playa &lt;playa1&gt; está cargada en la base de datos y esta activa</t>
   </si>
   <si>
-    <t>&lt;PlayaNombre1&gt; es el nombre de la playa &lt;Playa1&gt;</t>
-  </si>
-  <si>
-    <t>Ingreso &lt;PlayaNombre1&gt; en el campo nombre de playa</t>
-  </si>
-  <si>
     <t>Presiono el boton buscar</t>
   </si>
   <si>
@@ -139,15 +106,9 @@
     <t>se muestra el modal con los datos de la playa &lt;Playa1&gt; y los campos son editables</t>
   </si>
   <si>
-    <t>ingreso &lt;PlayaNombre2&gt; en el campo nombre de playa</t>
-  </si>
-  <si>
     <t>Presiono el boton guardar</t>
   </si>
   <si>
-    <t>Se muestra el mensaje "Está seguro que desea guardar los cambios en la playa de estacionamiento &lt;PlayaNombre1&gt;?"</t>
-  </si>
-  <si>
     <t>Selecciono la opcion "Si"</t>
   </si>
   <si>
@@ -155,13 +116,52 @@
   </si>
   <si>
     <t>Ignacio Frigerio [autor]</t>
+  </si>
+  <si>
+    <t>"CPA_Playa1" es el nombre de la playa &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "999999" es un telefono valido de playa de estacionamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "CPA_mail@CPA_mail" es un mail válido de la playa de estacionamiento</t>
+  </si>
+  <si>
+    <t>&lt;CPA_TipoPlaya1&gt; es un tipo de playa de estacionamiento valido y existe en la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;CPA_TipoVehiculo1&gt; es un tipo de vehiculo que existe en la base de datos y &lt;capacidad1&gt; es un valor válido para una capacidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;CPA_TipoVehiculo2&gt; es un tipo de vehiculo que existe en la base de datos y &lt;Capacidad2&gt; es un valor válido para una capacidad</t>
+  </si>
+  <si>
+    <t>&lt;Domicilio1&gt;, conla provincia &lt;Córdoba&gt; existe en la base de datos,  el departamento &lt;Capital&gt; existe en la base de datos y pertenece a  &lt;Córdoba&gt;, la ciudad &lt;Córdoba&gt; existe en la base de datos y pertenece al &lt;Capital&gt;, &lt;Calle1&gt; con nombre "Colon" es una calle valida y "9" es un valor valido para numero; es domicilio valido para una playa de estacionamiento</t>
+  </si>
+  <si>
+    <t>&lt;Horario1&gt; con &lt;CPA_DiasDeAtencion1&gt; como dias, "00:00" como horario desde y "23:59" hasta es un horario de &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;Precio1&gt; con &lt;CPA_TipoVehiculo1&gt; como tipo de vehiculo, &lt;CPA_TipoHorario1&gt; como tipo de horario, &lt;CPA_DiasDeAtencion1&gt; como dias y "9" como precio es un precio de &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t>"CPA_Playa2" es un nombre válido para una playa de estcionamiento</t>
+  </si>
+  <si>
+    <t>Ingreso "CPA_Playa1" en el campo nombre de playa</t>
+  </si>
+  <si>
+    <t>ingreso "CPA_Playa2" en el campo nombre de playa</t>
+  </si>
+  <si>
+    <t>Se muestra el mensaje "Está seguro que desea guardar los cambios en la playa de estacionamiento CPA_Playa1?"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,7 +421,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -456,7 +455,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,44 +630,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="39" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32.25" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -677,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -686,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -694,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -712,20 +710,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -733,95 +731,95 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26.25" thickBot="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26.25" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26.25" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.25" thickBot="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="39" thickBot="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39" thickBot="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="102.75" thickBot="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="39" thickBot="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51.75" thickBot="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -833,21 +831,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -858,86 +856,86 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" thickBot="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="26.25" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="26.25" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="26.25" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="26.25" thickBot="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="39" thickBot="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="25.5">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -949,14 +947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -964,26 +962,26 @@
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="38.25">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8">
         <v>41788</v>
@@ -992,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Producto/Web/Casos de prueba/2.xlsx
+++ b/Producto/Web/Casos de prueba/2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DatosGenerales" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Pasos" sheetId="2" r:id="rId3"/>
     <sheet name="Control de cambios" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -58,9 +58,6 @@
     <t>Volver</t>
   </si>
   <si>
-    <t>ingresar al menu administrar playa de estacionamiento</t>
-  </si>
-  <si>
     <t>se carga la seccion de administrar playas de estacionamiento</t>
   </si>
   <si>
@@ -148,20 +145,23 @@
     <t>"CPA_Playa2" es un nombre válido para una playa de estcionamiento</t>
   </si>
   <si>
-    <t>Ingreso "CPA_Playa1" en el campo nombre de playa</t>
-  </si>
-  <si>
-    <t>ingreso "CPA_Playa2" en el campo nombre de playa</t>
-  </si>
-  <si>
-    <t>Se muestra el mensaje "Está seguro que desea guardar los cambios en la playa de estacionamiento CPA_Playa1?"</t>
+    <t>ingresar al menu administrar playas</t>
+  </si>
+  <si>
+    <t>Ingreso &lt;Playa1&gt; en el campo nombre de playa</t>
+  </si>
+  <si>
+    <t>ingreso &lt;NuevoNombrePlaya1&gt;" en el campo nombre de playa</t>
+  </si>
+  <si>
+    <t>Se muestra el mensaje "Está seguro que desea guardar los cambios en la playa de estacionamiento &lt;Playa1&gt;?"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -297,12 +297,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -330,6 +375,15 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -421,6 +475,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -455,6 +510,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -630,44 +686,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="39" thickBot="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="32.25" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -675,7 +731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -684,7 +740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -692,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -710,20 +766,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -734,92 +790,92 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" thickBot="1">
+    <row r="2" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" thickBot="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" thickBot="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="39" thickBot="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="39" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="102.75" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="39" thickBot="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51.75" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="25.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -831,21 +887,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -859,19 +915,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" thickBot="1">
+    <row r="2" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="26.25" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -881,31 +937,31 @@
       <c r="C3" s="6"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="26.25" thickBot="1">
+    <row r="4" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="26.25" thickBot="1">
+    <row r="5" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -915,27 +971,27 @@
       <c r="C6" s="6"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="39" thickBot="1">
+    <row r="7" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="25.5">
-      <c r="A8" s="7">
+    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -947,14 +1003,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -962,26 +1018,26 @@
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="38.25">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="B2" s="8">
         <v>41788</v>
@@ -990,10 +1046,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
